--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.182</v>
+        <v>17.063</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.911</v>
+        <v>13.159</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.168</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.015</v>
+        <v>7.695</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.593732569855351</v>
+        <v>5.698564909271678</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.51431825404201</v>
+        <v>8.720444619083779</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.43540480530956</v>
+        <v>17.77200641097838</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.483211063196992</v>
+        <v>-3.267286972755418</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.46829637090619</v>
+        <v>9.959033668227949</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.32143577335905</v>
+        <v>12.38606955799415</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.47728444884546</v>
+        <v>-1.902703952216363</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.68653411200059</v>
+        <v>22.89633050293412</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.20462175229301</v>
+        <v>25.43767356655195</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.81729819971334</v>
+        <v>14.19791213303446</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.73274864448489</v>
+        <v>19.43929274756714</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39.5875027594668</v>
+        <v>22.22021759717639</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.421407889090002</v>
+        <v>5.822574270215746</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.12945126439226</v>
+        <v>9.398622611022773</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.22025766618267</v>
+        <v>19.58067173248025</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.729230661789773</v>
+        <v>11.38239774996103</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.75381866755649</v>
+        <v>21.916574108375</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.92043571986196</v>
+        <v>27.51239889686411</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.119285356335156</v>
+        <v>-0.5972611919225592</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.94736651714549</v>
+        <v>10.09612976798934</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.1944582458566</v>
+        <v>14.52965626249196</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.35688043428093</v>
+        <v>-1.537649311041594</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.60564887607131</v>
+        <v>22.96373684433238</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.055557007817192</v>
+        <v>6.614143755827801</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.06161535200027</v>
+        <v>16.61922954076213</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.97549466990021</v>
+        <v>21.0940013978793</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.048342772705735</v>
+        <v>-2.53042268666858</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.14176413905447</v>
+        <v>22.93402940847187</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.98449915986801</v>
+        <v>23.41308459560989</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.16868455644652</v>
+        <v>-1.549902988214647</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.47469099993213</v>
+        <v>34.96240760890421</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.98635441011162</v>
+        <v>34.82193283631332</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>30.50362091732516</v>
+        <v>36.56462732348096</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.43863345206814</v>
+        <v>40.74484230068374</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.29543518079017</v>
+        <v>42.18218019868843</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.96403126794117</v>
+        <v>11.12671629348471</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.81131879256985</v>
+        <v>31.22776533936162</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.88552900108187</v>
+        <v>35.25044702977402</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8.194928088826007</v>
+        <v>13.81571760682425</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>23.30432840015709</v>
+        <v>32.40063082646705</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>27.46589631359176</v>
+        <v>35.60005207979434</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.685929751681408</v>
+        <v>2.785751792270919</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>21.62142222042486</v>
+        <v>28.24678319120863</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.86042347771978</v>
+        <v>33.44537691630019</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>13.05156651924987</v>
+        <v>4.122663239143115</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.39621593086067</v>
+        <v>45.3313959128278</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.255089581403475</v>
+        <v>1.615051561859683</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.26910004975689</v>
+        <v>12.16940399417638</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.18434321463747</v>
+        <v>18.98930675571865</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3.28404336967838</v>
+        <v>-3.073064675417559</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20.38728430873126</v>
+        <v>20.89179007706561</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.23240598145427</v>
+        <v>23.93843388023441</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>11.41642543790015</v>
+        <v>-1.413461344855207</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.72988736530343</v>
+        <v>34.46030901867893</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.24290432328006</v>
+        <v>37.74926025153992</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.74460411809699</v>
+        <v>38.59873809571728</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.67725207306625</v>
+        <v>41.27657537113254</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>41.53790965371869</v>
+        <v>45.76455596111988</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11.18286684288717</v>
+        <v>4.405935583681007</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32.04979152568101</v>
+        <v>26.80792963915549</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>38.1237304270872</v>
+        <v>32.46011464546971</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>8.393806475304586</v>
+        <v>8.817011029616758</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>23.51084076477801</v>
+        <v>27.59503953866325</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>27.67419154008311</v>
+        <v>33.64387660672287</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.919499547041782</v>
+        <v>1.163531357746077</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>21.8645932064533</v>
+        <v>24.58271709247629</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.10632753843577</v>
+        <v>33.45694255895533</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>13.29742943185637</v>
+        <v>3.096958771427673</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.64918917600919</v>
+        <v>43.31276516616795</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5.419404948944194</v>
+        <v>-0.7158647259304551</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.40811236422557</v>
+        <v>7.865258447116059</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>24.33725360732476</v>
+        <v>18.97394786235281</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.388845570591804</v>
+        <v>-2.711136917766961</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>19.45662727142071</v>
+        <v>18.93119130130912</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>23.3187032795057</v>
+        <v>26.25256847689077</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.45616221890521</v>
+        <v>-2.942200902355911</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.74280475267271</v>
+        <v>31.02148737065507</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.27036404063931</v>
+        <v>37.88740966591547</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.81433674039028</v>
+        <v>31.52468234382992</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.74601904285888</v>
+        <v>34.2982978216994</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40.61389495107527</v>
+        <v>41.4300779601198</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.30668632073179</v>
+        <v>3.377130101757803</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.12659703154348</v>
+        <v>22.26924736586652</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>37.2259161794703</v>
+        <v>34.26707112298335</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>7.554590149979394</v>
+        <v>5.490634128949957</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>22.64689564225993</v>
+        <v>22.83971951735297</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.8231376615316</v>
+        <v>31.78914039954122</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.020817576637454</v>
+        <v>0.2781320816722932</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20.93077469399821</v>
+        <v>20.71051146757814</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.18852206517148</v>
+        <v>31.92885121662894</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.33277367611038</v>
+        <v>-0.4652752865411607</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.65831073456193</v>
+        <v>35.43896989083068</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.42933113653081</v>
+        <v>31.03695711122571</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>30.32992386185798</v>
+        <v>22.22722303259377</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.78064417576404</v>
+        <v>35.09936843163</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>41.80487599759307</v>
+        <v>36.15113553806717</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.58685946805619</v>
+        <v>5.815760713937998</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.10180346407943</v>
+        <v>22.42475154161916</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>39.1679677256434</v>
+        <v>27.17476903096002</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.1396426862891</v>
+        <v>13.03352652315295</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.23548120145233</v>
+        <v>24.21453564029739</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.70071821693652</v>
+        <v>34.96131085701126</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.41828749848755</v>
+        <v>-4.747671992017143</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.9331912375098</v>
+        <v>11.60843043956437</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.27459614318484</v>
+        <v>17.77796711580839</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20.47334683283773</v>
+        <v>-2.942432074042681</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.79494555669882</v>
+        <v>29.79049598800959</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.98032417194738</v>
+        <v>43.51559876459487</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>41.41334783597748</v>
+        <v>30.29732748381769</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48.9643138507609</v>
+        <v>44.87738777101008</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>53.47336062231928</v>
+        <v>51.11516318250258</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.23457989395186</v>
+        <v>3.017618034471528</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>43.24296115302379</v>
+        <v>28.76189702905861</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>49.62341247422264</v>
+        <v>38.58236934069703</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.21603175441874</v>
+        <v>53.4494305516002</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32.01553555137679</v>
+        <v>49.5198672862681</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>39.48496799110298</v>
+        <v>57.93770970185145</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>43.5117631597241</v>
+        <v>58.56081265782248</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>13.13326246132977</v>
+        <v>16.79957774249003</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.7880963787328</v>
+        <v>53.84312349083608</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>40.83968971708079</v>
+        <v>55.25638763269761</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>15.67886727686292</v>
+        <v>19.36985252861284</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>31.86237607369335</v>
+        <v>40.09639764328154</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>36.3211996551025</v>
+        <v>45.84615283787798</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>12.06219512157241</v>
+        <v>4.751326914398643</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>30.68831606520708</v>
+        <v>40.63958217279518</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>35.01982713490904</v>
+        <v>43.77281989815801</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>22.25228981940689</v>
+        <v>9.089667787157271</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.67318630943019</v>
+        <v>61.71525864261454</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>46.85280737964111</v>
+        <v>69.48126785631149</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>43.18536698452008</v>
+        <v>72.8134170664171</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>50.75388788435455</v>
+        <v>79.19738055960786</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>55.26522163649576</v>
+        <v>83.99781028480494</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>21.86206655144137</v>
+        <v>24.04082508871496</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>45.01317218508328</v>
+        <v>74.19214144338247</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51.37727943948767</v>
+        <v>76.46866107232495</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.47085377985821</v>
+        <v>55.82846069208661</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>32.25303031823912</v>
+        <v>45.24875247261656</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>39.71972476875631</v>
+        <v>51.85978303405483</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>43.75026723862663</v>
+        <v>57.76588602399045</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.35046187352309</v>
+        <v>9.824618520908146</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>35.02444476592656</v>
+        <v>50.19178447031311</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>41.07631678670499</v>
+        <v>53.77201234811169</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>15.89792006981716</v>
+        <v>14.66759412992357</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.08909154520203</v>
+        <v>36.81787824154425</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>36.54899741250365</v>
+        <v>44.66815115055971</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12.31752593579232</v>
+        <v>3.287499366240631</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.95301875767662</v>
+        <v>38.96958825473938</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>35.28664329189591</v>
+        <v>44.78537555173399</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.52075968146069</v>
+        <v>8.809537646582104</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>41.9489495797888</v>
+        <v>62.14727469099373</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>47.1294835265174</v>
+        <v>72.87060933254199</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>43.44433923536813</v>
+        <v>73.5241456330473</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>51.00982949202708</v>
+        <v>78.51667730880681</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>55.52434649864568</v>
+        <v>87.36264705600867</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.09999544018259</v>
+        <v>16.99176064136241</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>45.26991890176656</v>
+        <v>73.0238804152948</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>51.63354476806678</v>
+        <v>77.82645481343599</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.49335685083181</v>
+        <v>50.77640043072742</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.31957789976915</v>
+        <v>29.94167478013507</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.78678072237921</v>
+        <v>38.65688887330837</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>42.82449675720905</v>
+        <v>46.54700307779379</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.4704728231502</v>
+        <v>6.490108330641551</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.0986334379161</v>
+        <v>43.78117386513179</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>40.17431108824422</v>
+        <v>51.06732399127711</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>15.03824124070152</v>
+        <v>12.16539175743315</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>31.20483222006847</v>
+        <v>34.73250480727086</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.6791588178395</v>
+        <v>46.66759343826125</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>11.39645963969546</v>
+        <v>3.076639768101689</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.99739291711944</v>
+        <v>35.20770118606681</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.34866056481256</v>
+        <v>45.74100192513272</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.53325512244581</v>
+        <v>5.054188694425765</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.93506253507549</v>
+        <v>55.88888280947093</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.13087826664141</v>
+        <v>71.60336324932521</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>42.48972453201091</v>
+        <v>61.124131651688</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>50.05655202633906</v>
+        <v>71.43028694133032</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>54.57958245951816</v>
+        <v>83.36705247313219</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21.1963108736287</v>
+        <v>12.40717002169846</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.32116444474066</v>
+        <v>65.00881655341773</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>50.71052271891283</v>
+        <v>76.61912318842988</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>41.09276258269031</v>
+        <v>11.60283876677167</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>53.81617750272809</v>
+        <v>11.80659324916006</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>57.33510376493427</v>
+        <v>19.32874811836495</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>38.52167682789814</v>
+        <v>-0.7515467462349328</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>53.00286508360612</v>
+        <v>10.09670205821517</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>56.56398997637702</v>
+        <v>11.22786474295451</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>47.9574650312024</v>
+        <v>4.152516617978417</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>63.51029928763869</v>
+        <v>22.70175052378715</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>67.56327760481643</v>
+        <v>25.62929603221251</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>60.63569797807504</v>
+        <v>14.35696526540614</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>66.52320738484758</v>
+        <v>20.49794502697954</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>70.07409764151781</v>
+        <v>23.01949285167071</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>43.51329974865195</v>
+        <v>11.47372866793863</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>60.80119290952126</v>
+        <v>12.03412443712647</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>66.42895006873549</v>
+        <v>21.37531683678725</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>42.07457343857207</v>
+        <v>11.25462488861338</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>54.93716485835697</v>
+        <v>18.84349525209556</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>58.68508455965919</v>
+        <v>25.77972348978991</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>39.04022554083598</v>
+        <v>-1.316330171487312</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>53.44667391024741</v>
+        <v>5.187803213432726</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>57.35857726274065</v>
+        <v>10.31736750785652</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>48.61710119116769</v>
+        <v>-1.254102239764631</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>64.2518411917241</v>
+        <v>15.3990202930203</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>42.46024036579061</v>
+        <v>13.17538181977138</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>55.25852110096545</v>
+        <v>19.77843214614142</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>58.77187923481419</v>
+        <v>23.67281293165732</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>39.98159241215718</v>
+        <v>0.5941291649271001</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>54.55746641958523</v>
+        <v>22.40677506004412</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>58.11052311989262</v>
+        <v>22.65689637656542</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>49.53471214050955</v>
+        <v>5.670275452408628</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>65.17235024782455</v>
+        <v>35.07641471779903</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>69.22057523374551</v>
+        <v>36.26036659133705</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>62.20142787423221</v>
+        <v>36.67389906722389</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>68.10690652180548</v>
+        <v>42.56830339801077</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>71.66026015868631</v>
+        <v>44.13806282165142</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>44.95308587079155</v>
+        <v>18.96558542887873</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>62.36276479794425</v>
+        <v>34.16144197368739</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>67.97656461135081</v>
+        <v>38.91453011710252</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>43.44234603234406</v>
+        <v>14.78960437372019</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>56.37921589988505</v>
+        <v>29.8262739092134</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>60.1234862613356</v>
+        <v>35.24416456676068</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>40.49816339581009</v>
+        <v>3.327630189512568</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>54.99848272227393</v>
+        <v>23.08920945120164</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>58.90438632907927</v>
+        <v>30.06876071143139</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>50.19376772853055</v>
+        <v>6.063961387639853</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>65.91250537261735</v>
+        <v>38.0661848938071</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>42.61639433493205</v>
+        <v>6.954302623595925</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>55.42173442297109</v>
+        <v>14.3168835561008</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>58.93677534270689</v>
+        <v>20.31140065863855</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>40.16958209156186</v>
+        <v>-1.443897641554234</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>54.75407157513379</v>
+        <v>19.19355036954693</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>58.30981482054729</v>
+        <v>21.92279295367569</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>49.73215010020556</v>
+        <v>3.908909547437027</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>65.37646857730768</v>
+        <v>33.11791743306499</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>69.42641798527698</v>
+        <v>37.5226676919537</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>62.39515155703332</v>
+        <v>36.33950760383362</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>68.29889617948547</v>
+        <v>41.14044071381575</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>71.85608294276263</v>
+        <v>45.52009719599762</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>45.12785066422494</v>
+        <v>11.30815695200042</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>62.55539380693189</v>
+        <v>28.70013190148511</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>68.16952055433325</v>
+        <v>35.38417179796394</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>43.59846219430651</v>
+        <v>8.47183211322626</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>56.54208039856837</v>
+        <v>23.77555642808297</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>60.2884073669595</v>
+        <v>32.02079866669271</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.68479286862558</v>
+        <v>0.1073863120209566</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>55.19349343938663</v>
+        <v>18.036138284162</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>59.10242517436377</v>
+        <v>28.83046751550786</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.39010808394629</v>
+        <v>2.998696720042766</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>66.11518288889491</v>
+        <v>34.31365273702236</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>41.89100529157269</v>
+        <v>3.936586959201758</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>54.67370046310045</v>
+        <v>9.304122394396636</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>58.20062983867712</v>
+        <v>18.91624305810294</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>39.39133205206677</v>
+        <v>-1.742884822088833</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>53.94435756936604</v>
+        <v>16.72154481533158</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>57.51466406351685</v>
+        <v>22.89680980855863</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>48.89659480598808</v>
+        <v>1.388343436737504</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>64.51683486898339</v>
+        <v>28.67120113925098</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>68.5791688037131</v>
+        <v>35.98029688110627</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>61.58317555322262</v>
+        <v>28.11128203198441</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>67.48544302171155</v>
+        <v>32.12053112140462</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>71.04888747143552</v>
+        <v>38.85475138293282</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>44.36307874141653</v>
+        <v>7.855935595622906</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>61.74805900250264</v>
+        <v>22.05996038389621</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>67.3849085895024</v>
+        <v>33.93796722770061</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>42.87082633711159</v>
+        <v>5.724292760819743</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>55.79239528084178</v>
+        <v>19.47160689045975</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>59.54973614430865</v>
+        <v>30.27129462586058</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>39.9044248447731</v>
+        <v>0.006242308869317981</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>54.38205618938164</v>
+        <v>15.06441496835276</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>58.30471937708047</v>
+        <v>27.91537867497421</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>49.55163836160596</v>
+        <v>0.09722195769506925</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>65.25327216305814</v>
+        <v>27.45039231367227</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>68.59150577313825</v>
+        <v>26.04409696537796</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>61.0790867831896</v>
+        <v>14.60722306138831</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>67.49150318268634</v>
+        <v>27.22124846397316</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>71.19784814485914</v>
+        <v>31.91206329666722</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>44.43931434977505</v>
+        <v>3.084391474081247</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>62.54560078743022</v>
+        <v>15.6787771202517</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>68.14760698480582</v>
+        <v>22.93935686546509</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>47.62343813351841</v>
+        <v>14.88331594568573</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>61.37266638524751</v>
+        <v>22.02835287926048</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>65.37746394698512</v>
+        <v>31.89568382206319</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>44.50073026091223</v>
+        <v>-2.947817072524966</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>60.30925867978172</v>
+        <v>7.384254414736329</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>64.32416545418752</v>
+        <v>13.32028149672111</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>55.60432692076913</v>
+        <v>0.1279154454020563</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>72.13744047369136</v>
+        <v>22.66205311301049</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>76.77996636489613</v>
+        <v>37.21928741834817</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>69.88485500007654</v>
+        <v>24.54866842116478</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>76.33545124412011</v>
+        <v>36.5618502972202</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>80.47015252918331</v>
+        <v>43.59025697091383</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>51.19268700156616</v>
+        <v>5.173464913587917</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>70.480598537087</v>
+        <v>21.65699416137321</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>76.38706736640917</v>
+        <v>33.54004382098998</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>70.24970099611132</v>
+        <v>49.80074146758054</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>62.64091592406395</v>
+        <v>41.89873485669688</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>69.07042416846429</v>
+        <v>51.47708877564588</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>72.77980758466941</v>
+        <v>56.00940907426842</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>45.87922213891942</v>
+        <v>16.59629596982773</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>64.10785544454176</v>
+        <v>47.59382318190333</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>69.69776606839544</v>
+        <v>52.86664205208143</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>49.05706075161804</v>
+        <v>22.68991739020106</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>62.88310534017288</v>
+        <v>38.58016013468498</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>66.88314477123755</v>
+        <v>44.64081169102752</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>46.02795320467871</v>
+        <v>7.337899011041248</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>61.93370048137947</v>
+        <v>35.06991282201193</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>65.94115667965183</v>
+        <v>39.57632155764087</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>57.25650205754532</v>
+        <v>13.52696371786197</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>73.87666630346564</v>
+        <v>54.21744316830136</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>78.51515983797981</v>
+        <v>64.49522069963321</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>71.52406657432095</v>
+        <v>65.87520093006904</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.99098603185696</v>
+        <v>71.48887354109088</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>82.1282830371279</v>
+        <v>77.51256260794375</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>52.70515275486295</v>
+        <v>28.19933982380212</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>72.11803494046073</v>
+        <v>66.32735642363741</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>78.01073031078609</v>
+        <v>72.67008546278582</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>70.45454337814573</v>
+        <v>50.46886105748038</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>62.8320294549269</v>
+        <v>35.59650448152064</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>69.25942483062597</v>
+        <v>43.88289026324671</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>72.97255533428203</v>
+        <v>53.38916792982074</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>46.05306348778013</v>
+        <v>8.59653885203301</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>64.29903151524141</v>
+        <v>42.54462669597518</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>69.88978846527807</v>
+        <v>50.37929052405993</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>49.23216373532654</v>
+        <v>16.8850180885337</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>63.06502675214955</v>
+        <v>34.25629189928495</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>67.06652476078715</v>
+        <v>42.46177071863939</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>46.2350733306243</v>
+        <v>4.639191622651825</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>62.14907113875115</v>
+        <v>32.31717289892888</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>66.1590144494602</v>
+        <v>39.66218333989186</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>57.47417581531427</v>
+        <v>11.44887618992573</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>74.10087867839982</v>
+        <v>53.14062546845055</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>78.74073764387219</v>
+        <v>66.51198829863478</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>71.73544095081897</v>
+        <v>64.43312741250622</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>78.20008461471905</v>
+        <v>69.12251234071577</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>82.34056474144796</v>
+        <v>78.98856431373376</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>52.89848251442474</v>
+        <v>20.41339112419501</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>72.32850781253997</v>
+        <v>63.75118978905066</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>78.22132958490242</v>
+        <v>72.99766586165076</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>69.6040034779009</v>
+        <v>45.91505032307109</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>62.01824949914314</v>
+        <v>22.04331472685542</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>68.44564141085368</v>
+        <v>30.98464664800404</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>72.16493463640427</v>
+        <v>42.57305823531662</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>45.28572542436387</v>
+        <v>4.426751997055177</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>63.49036693978374</v>
+        <v>35.53683198199995</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>69.10242130039508</v>
+        <v>46.70448821608073</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>48.48391542300842</v>
+        <v>13.52264250501553</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>62.29473736246661</v>
+        <v>31.02912441489714</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>66.30854464867375</v>
+        <v>42.86612581367881</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>45.43231907529062</v>
+        <v>3.98096737146464</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>61.31560405259454</v>
+        <v>28.35663516702123</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>65.34066456031547</v>
+        <v>39.74426519052147</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>56.61272697762457</v>
+        <v>7.033226205258</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>73.21572371566815</v>
+        <v>46.36730609342156</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>77.86856050731173</v>
+        <v>64.06513563081675</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>70.90031002333541</v>
+        <v>51.76933618793234</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>77.36543270402559</v>
+        <v>60.13359037925269</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>81.51341140456975</v>
+        <v>73.11037072259126</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>52.10783133452112</v>
+        <v>13.56378449786803</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>71.49685909496627</v>
+        <v>53.81971214907983</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>77.41280940749606</v>
+        <v>69.10839745298085</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.94671960959285</v>
+        <v>11.54151072456936</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>41.01740719865725</v>
+        <v>17.26107688397831</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>44.49953396818289</v>
+        <v>22.95817082828474</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.0693232880327</v>
+        <v>-0.468979990213704</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.89585208366903</v>
+        <v>10.99371990362141</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>43.36478265780679</v>
+        <v>12.35490043301153</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.61084794004306</v>
+        <v>3.799431080446062</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>49.55212761308885</v>
+        <v>25.42682868793968</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>53.58896730995031</v>
+        <v>27.74090376863141</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>47.94360057221765</v>
+        <v>18.57272936566865</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>54.03998019500823</v>
+        <v>24.42518886805235</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>57.55348839269018</v>
+        <v>26.88216525108843</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.45487615613183</v>
+        <v>6.944559824374402</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>48.51238139639614</v>
+        <v>15.2210262149034</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>53.93942508883617</v>
+        <v>22.33691191394058</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.14621978123774</v>
+        <v>10.6835141134953</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>42.32448395458858</v>
+        <v>20.93082515104625</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>46.05821374146442</v>
+        <v>26.92351409582275</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.81991528208003</v>
+        <v>-0.69634620769531</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>40.52705101906783</v>
+        <v>5.902752178562412</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>44.37392433317796</v>
+        <v>11.46095875917868</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.54070598027371</v>
+        <v>-1.042355449903472</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>50.53467182214311</v>
+        <v>17.45697230893036</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.29332631347304</v>
+        <v>13.01018698385967</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.44028877301346</v>
+        <v>25.52784715163815</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>45.91627338862703</v>
+        <v>27.31975207908313</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.50931519429247</v>
+        <v>1.803403560882746</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>41.43245766512794</v>
+        <v>24.46585835635537</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>44.89253654103863</v>
+        <v>24.5005073090482</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.16616496220734</v>
+        <v>5.948447830854406</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>51.19369209850615</v>
+        <v>38.69415548782434</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.22522238260309</v>
+        <v>38.8733583539431</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>49.49008845332722</v>
+        <v>40.99827269683013</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>55.60396692138574</v>
+        <v>46.22353975658439</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>59.11966162203302</v>
+        <v>47.39566544972334</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>31.87328060082436</v>
+        <v>13.68676680201147</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>50.05488334448903</v>
+        <v>37.46317551070952</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>55.46784242511431</v>
+        <v>39.59022166821002</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>30.4942202801967</v>
+        <v>13.58422664238631</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>43.7481775233374</v>
+        <v>31.75857740150285</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>47.47774502207925</v>
+        <v>35.95745361843793</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>27.25900796678491</v>
+        <v>3.955964491672059</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>42.06191026710893</v>
+        <v>24.0378109969962</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.90206029270353</v>
+        <v>31.04132786913079</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.09671210622425</v>
+        <v>6.02758755490709</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>52.17615104254361</v>
+        <v>40.23220851900338</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.45705318358354</v>
+        <v>7.287504095115654</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>42.61108961329625</v>
+        <v>20.0955175497894</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>46.08863567096164</v>
+        <v>24.15164264228131</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.70529763551791</v>
+        <v>0.07912480168186775</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>41.63719232846027</v>
+        <v>21.21508218903939</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>45.09986037981521</v>
+        <v>23.87175661987717</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>35.37198631032069</v>
+        <v>4.822782307612297</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>51.40616734395604</v>
+        <v>36.83843410770123</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>55.43928578874318</v>
+        <v>40.3341549941747</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>49.69134267347982</v>
+        <v>40.89168900932209</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>55.80317689822784</v>
+        <v>44.90919250914698</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>59.32256338772932</v>
+        <v>48.95465494266787</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>32.05560728470997</v>
+        <v>6.652347700171088</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>50.2548840253769</v>
+        <v>32.15754739288728</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>55.6680418792377</v>
+        <v>36.06596775016695</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>30.65791511352344</v>
+        <v>7.678168636272879</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>43.91866586977875</v>
+        <v>25.75538733142789</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>47.65015015180235</v>
+        <v>32.88591951520748</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>27.45362862664584</v>
+        <v>1.001677405755256</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>42.26508582699643</v>
+        <v>18.92343177267543</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>46.10812878299807</v>
+        <v>29.83550179987112</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>36.30145040874738</v>
+        <v>3.557474859957871</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>52.38723141282471</v>
+        <v>36.59975075347059</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.72378209833472</v>
+        <v>5.194229906092346</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>41.85482445622313</v>
+        <v>15.53183258970119</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>45.34465392452255</v>
+        <v>23.49318150003836</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.91814215462279</v>
+        <v>-0.09116918981395017</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>40.81789145407733</v>
+        <v>18.62071557508223</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>44.2955831041368</v>
+        <v>25.0906518402652</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>34.52726495552792</v>
+        <v>2.864889388945453</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>50.53705091372921</v>
+        <v>32.49149668715759</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>54.58298857424262</v>
+        <v>39.28464405344535</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>48.87122682233174</v>
+        <v>32.93643669288375</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>54.98213936342057</v>
+        <v>36.89641765410738</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>58.50793395837464</v>
+        <v>43.62523066127335</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.28359584856909</v>
+        <v>5.127820921541623</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>49.44022876422496</v>
+        <v>26.75412007079224</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>54.87577119490186</v>
+        <v>36.10068845917591</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.92179987749628</v>
+        <v>5.043034700531038</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>43.16009305973397</v>
+        <v>20.98645239806837</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>46.90298855086277</v>
+        <v>30.97543097800112</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.6638116453877</v>
+        <v>0.3787394255890781</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>41.44346993746794</v>
+        <v>15.14940714292859</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>45.30070872199681</v>
+        <v>28.35824206995977</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>35.453199362204</v>
+        <v>0.4246421632285369</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>51.51514518045097</v>
+        <v>28.84114579975696</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>54.87869502296302</v>
+        <v>27.33148117143438</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>48.65364666164054</v>
+        <v>17.92176116048171</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>55.2535650797827</v>
+        <v>31.09958773356782</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>58.92457000033555</v>
+        <v>34.085097590475</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>31.69577044324796</v>
+        <v>1.065895321823117</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>50.50148868724004</v>
+        <v>18.08883588858558</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>55.9574805987876</v>
+        <v>24.60368890711648</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.74950811009817</v>
+        <v>12.61629491802685</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>48.85945430978878</v>
+        <v>23.15849450046588</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>52.84622069299053</v>
+        <v>32.42834642593864</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.3032412733103</v>
+        <v>-4.04427947628383</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>47.48485391912967</v>
+        <v>6.802291348104571</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>51.41771567081272</v>
+        <v>13.52069729739272</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>41.58038366244215</v>
+        <v>-2.001425458789686</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>58.50799779983977</v>
+        <v>22.35483535266282</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>63.15848509533103</v>
+        <v>36.69791503606956</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>57.49883476802783</v>
+        <v>24.83412547797762</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>64.18176477197379</v>
+        <v>38.05295801592992</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>68.28644179100445</v>
+        <v>45.94857942802449</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>38.47352669108918</v>
+        <v>0.1778517337032675</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>58.52413813807038</v>
+        <v>21.83100331482929</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>64.26695899493987</v>
+        <v>33.76529186846354</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>56.51719741827259</v>
+        <v>50.70621711741913</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>50.19755437273152</v>
+        <v>44.99224581743741</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>56.81415152603873</v>
+        <v>54.68896413419162</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.48779567128406</v>
+        <v>57.25777298732447</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.11546022335882</v>
+        <v>12.96945236630946</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>52.04590333665342</v>
+        <v>49.32481507333767</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>57.48966421981157</v>
+        <v>53.56498813559233</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.16311632401979</v>
+        <v>19.5592946588871</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>50.35129391388649</v>
+        <v>39.45169188014552</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>54.33266500958614</v>
+        <v>44.4895491082211</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>32.81134641315448</v>
+        <v>6.138146792641326</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>49.09210221529423</v>
+        <v>34.78023440796924</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>53.01662253479021</v>
+        <v>39.53608500454427</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.21159165076706</v>
+        <v>10.99183127822296</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>60.22771437224557</v>
+        <v>54.01765799070235</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>64.8735461015371</v>
+        <v>63.48390381624847</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>59.11971686069874</v>
+        <v>65.78882870534204</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>65.81850078997265</v>
+        <v>72.24015415761127</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>69.92545391480112</v>
+        <v>78.74533242775543</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>39.96557563209473</v>
+        <v>21.26852276155703</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>60.1433746305884</v>
+        <v>65.66271889421803</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>65.87223176612498</v>
+        <v>71.54243183217149</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>56.73028982378646</v>
+        <v>51.55272495418157</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>50.39625950484182</v>
+        <v>39.06171661882999</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>57.01044482593824</v>
+        <v>47.35388531681632</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>60.6876927809607</v>
+        <v>55.00411766473538</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>33.29680823387299</v>
+        <v>5.527924803424355</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>52.24450305982706</v>
+        <v>44.48706360779082</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>57.68892780952098</v>
+        <v>51.17356449138364</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>36.34514543655307</v>
+        <v>13.5587553471908</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>50.54012024759565</v>
+        <v>34.50820396689983</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>54.52281135665653</v>
+        <v>41.85189905424775</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>33.02576656286871</v>
+        <v>2.906613795523118</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>49.31484295794894</v>
+        <v>31.07070356505561</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>53.24172423023165</v>
+        <v>38.88398950307182</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>43.43690169094558</v>
+        <v>8.724541818544122</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>60.45950462056915</v>
+        <v>52.21410928517719</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>65.10654892015738</v>
+        <v>64.8993585730089</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>59.3379523243303</v>
+        <v>63.81193577912357</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>66.03409920779872</v>
+        <v>69.27307972502869</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>70.14410494600334</v>
+        <v>79.72872613270562</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>40.16578076653208</v>
+        <v>13.23918546162665</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>60.36051794077559</v>
+        <v>62.46461874770272</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>66.08935972092935</v>
+        <v>71.19905308079926</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>55.87001992214365</v>
+        <v>46.59378945469918</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>49.57371180698092</v>
+        <v>24.45728829138886</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>56.18837186646996</v>
+        <v>34.37641025193593</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>59.87200950815608</v>
+        <v>44.34130786010269</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>32.52175176221397</v>
+        <v>2.521773542793738</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>51.42789151577045</v>
+        <v>37.82405027202379</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>56.89336894248725</v>
+        <v>47.95142793852347</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>35.58869977532633</v>
+        <v>10.37078863084712</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>49.76129678258167</v>
+        <v>30.69309562847495</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>53.75676360127997</v>
+        <v>42.09979182835355</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.21377604560269</v>
+        <v>1.647264768998905</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.47149855615029</v>
+        <v>25.97969044024163</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>52.41404689925536</v>
+        <v>38.29806482170032</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>42.56597019431463</v>
+        <v>4.031200210070406</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>59.56454255239478</v>
+        <v>44.28312019016961</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>64.22508441677176</v>
+        <v>61.89221538728658</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>58.4943744750055</v>
+        <v>50.08774402043925</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>65.1915994035149</v>
+        <v>60.01407340048573</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>69.30928417358236</v>
+        <v>73.98955171099206</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>39.36758629335745</v>
+        <v>7.718604897768447</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>59.52129181558506</v>
+        <v>52.72465444304122</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>65.2730348635418</v>
+        <v>67.91621247041674</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>0.2880666722516709</v>
+        <v>9.805363621742536</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.00162253223273</v>
+        <v>17.9591824140192</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.04485069705749</v>
+        <v>25.47163835016723</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3.39192530370017</v>
+        <v>-1.06906065135674</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.47445826960722</v>
+        <v>16.43406563762004</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.49188675248863</v>
+        <v>18.01483351191619</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.827757008640135</v>
+        <v>2.628031731342979</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.97736704836376</v>
+        <v>32.40462330877386</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.65392975295295</v>
+        <v>34.67516935820137</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.75933200671248</v>
+        <v>22.81437555181671</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>33.14811244063566</v>
+        <v>29.9226134113073</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>37.25450152057613</v>
+        <v>31.12588060998727</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.761139400579164</v>
+        <v>7.365031674794519</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.52739727607734</v>
+        <v>16.69408125238692</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.81646955573577</v>
+        <v>26.33207724168779</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>2.848486083215289</v>
+        <v>10.94237185373402</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.69274992410441</v>
+        <v>23.51419543212312</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.99782183969853</v>
+        <v>28.25544480526572</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.346840621388921</v>
+        <v>-1.189754650097452</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.39108640563187</v>
+        <v>9.817478104428321</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.81724184790772</v>
+        <v>13.1078867841074</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.1328360739591</v>
+        <v>-2.654011416553363</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.34542367601026</v>
+        <v>23.06611604648155</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1.818926890685314</v>
+        <v>13.57799853848907</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.62208292728963</v>
+        <v>29.8889711110006</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.65785879684939</v>
+        <v>32.5733523629485</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1.753916241528158</v>
+        <v>3.190478944700221</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.22598397570239</v>
+        <v>34.13729686306975</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>20.23268961596315</v>
+        <v>33.91238553081802</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.598665336956167</v>
+        <v>6.890128697520527</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.84971486521606</v>
+        <v>50.00913975044292</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.51969759415937</v>
+        <v>49.53970842352184</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.52556396439618</v>
+        <v>50.87590010595052</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.93498616701932</v>
+        <v>57.16525806426445</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.04410218297537</v>
+        <v>56.71539710584138</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>7.377996565097233</v>
+        <v>16.8243055038466</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.28945372253472</v>
+        <v>44.12843358623432</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.56133275557458</v>
+        <v>47.90599038874718</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>4.382862808818044</v>
+        <v>14.70289051387476</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.3160587375536</v>
+        <v>36.44700685418616</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.61593001062778</v>
+        <v>38.66937855622275</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>0.2921600191221465</v>
+        <v>3.990908059702335</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>18.14265493216267</v>
+        <v>30.83897829786932</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.56049665162138</v>
+        <v>35.30244197969264</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.906594873545906</v>
+        <v>5.30329085573873</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.21971645395562</v>
+        <v>49.37937652036599</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.030740704750598</v>
+        <v>7.670466249498606</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.84206526626382</v>
+        <v>24.70530413071321</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.87954255103229</v>
+        <v>29.89981718631503</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1.504197009591842</v>
+        <v>2.250232151431153</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.4857964049517</v>
+        <v>31.71047231038188</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.49533435345868</v>
+        <v>34.46802368733863</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.861114558290489</v>
+        <v>6.600183557151592</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>26.11981744606381</v>
+        <v>49.28786956745873</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.79151840748345</v>
+        <v>52.53370506971903</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>27.78031666634958</v>
+        <v>52.18171224893783</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.18721551251845</v>
+        <v>57.10024250548157</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>39.30062572895798</v>
+        <v>59.86710527105551</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.609903514620007</v>
+        <v>9.656599371172035</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.54175515380746</v>
+        <v>39.27271073147874</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>35.81373551870667</v>
+        <v>45.14825629045974</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>4.593978239437065</v>
+        <v>8.711175439799018</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>20.53502474298023</v>
+        <v>30.74583732910645</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.83701874745026</v>
+        <v>36.13665377979175</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>0.5396083223749182</v>
+        <v>1.624257252759985</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>18.39997452777073</v>
+        <v>26.36673501101433</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.8210065980921</v>
+        <v>35.14185524918225</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.167044428913641</v>
+        <v>3.464088721978026</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.48747063639572</v>
+        <v>46.70792684338762</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>1.147554250436632</v>
+        <v>4.148213750105569</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.93246080348321</v>
+        <v>18.40059885878857</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.98440942226165</v>
+        <v>28.18429191925504</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-2.449695607379892</v>
+        <v>1.22746292286671</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>15.50325751185072</v>
+        <v>27.74630316977402</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.5305007965617</v>
+        <v>35.08563302362494</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>5.846771644974631</v>
+        <v>3.353873921737364</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.0774408984793</v>
+        <v>43.23625363059756</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.76427436839741</v>
+        <v>50.25259110089733</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.79786612379736</v>
+        <v>42.07468737016187</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.20393047866107</v>
+        <v>46.79368064732716</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.32475359333912</v>
+        <v>52.88930080774485</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>6.683997553351834</v>
+        <v>6.741689779484577</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.5669708079915</v>
+        <v>31.93310091641411</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>34.86548959555807</v>
+        <v>44.24440529065554</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>3.708148895583393</v>
+        <v>4.959916548707522</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.62340449959858</v>
+        <v>24.81615304841375</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.93882435791811</v>
+        <v>33.58130458897199</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-0.4084280138046115</v>
+        <v>0.4009584387502905</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>17.41528814507422</v>
+        <v>21.58627802324737</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.85303840332958</v>
+        <v>33.21261019682326</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>8.149228074886246</v>
+        <v>-0.7723988426459059</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.44227991735834</v>
+        <v>37.36868748360884</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.34815705486692</v>
+        <v>30.69830921013294</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.65396144816312</v>
+        <v>22.24062053992788</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.62136472445687</v>
+        <v>36.25879531482362</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>39.89744771414932</v>
+        <v>37.23942014201485</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>8.287194168898804</v>
+        <v>2.461517142714303</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.93322334905535</v>
+        <v>21.986322974731</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>37.2059971850821</v>
+        <v>27.10146241144047</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>10.01941246216948</v>
+        <v>11.20526641234386</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.93748151627943</v>
+        <v>23.01039291201342</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.56798420346616</v>
+        <v>33.08432030551755</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>5.717143347158683</v>
+        <v>-5.9568666463929</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.15708089164046</v>
+        <v>8.400559970266549</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.71303492404532</v>
+        <v>14.25782845533515</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.07422410883415</v>
+        <v>-6.061314109401007</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.3629596283901</v>
+        <v>24.84246710729423</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.75524934052033</v>
+        <v>39.34144127040435</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>38.673441877652</v>
+        <v>27.47214980044185</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>46.73053483523495</v>
+        <v>42.2451793267905</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>51.54379322368848</v>
+        <v>49.92379774014236</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.83661654815666</v>
+        <v>-2.107600221819556</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.96395350721735</v>
+        <v>22.78201597781589</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.58665343523758</v>
+        <v>35.1629274850488</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.21854422491128</v>
+        <v>57.2183753905678</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.41892911142511</v>
+        <v>53.64929987543434</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>37.40602420320091</v>
+        <v>63.32488762583836</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>41.68534591350136</v>
+        <v>63.56051652805326</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>9.907401556015227</v>
+        <v>16.2685295471473</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>32.6993688235134</v>
+        <v>57.66673161710354</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.95704788690863</v>
+        <v>59.86009143900935</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>11.62921062729573</v>
+        <v>18.84460044656512</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.63911763834334</v>
+        <v>41.44885520697879</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.26308999098556</v>
+        <v>46.39933366259116</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>7.435406901136287</v>
+        <v>4.857053781476356</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.99173535940951</v>
+        <v>39.94334672131885</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>31.53763049636114</v>
+        <v>43.29406387760631</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>17.93453063533671</v>
+        <v>7.896590267075634</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>38.32729554063934</v>
+        <v>60.51826158237772</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.7138209680836</v>
+        <v>69.16690394220495</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>40.52720929081602</v>
+        <v>73.94153427633159</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>48.60298396871651</v>
+        <v>80.6261842822323</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>53.41919919856771</v>
+        <v>86.55143704730462</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>18.54015751373338</v>
+        <v>21.39126205447198</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>42.81632499876262</v>
+        <v>72.30561712664758</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.42208544894354</v>
+        <v>77.67274095858447</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.48851852417641</v>
+        <v>59.43008980618514</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.67000235318309</v>
+        <v>48.1413986063267</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.65417142290108</v>
+        <v>56.21220163276638</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.93765865156871</v>
+        <v>62.11286949461098</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.1375461494629</v>
+        <v>8.604764472032976</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.94940476474974</v>
+        <v>53.32653662280968</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.20773892164128</v>
+        <v>58.2057939982251</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>11.86136427879555</v>
+        <v>12.67102682968116</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.87911881793531</v>
+        <v>36.79140320503839</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.50452518790446</v>
+        <v>44.23897367535454</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>7.705555285035403</v>
+        <v>2.044705371893944</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.27147527566171</v>
+        <v>36.84477336274936</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>31.81995783163972</v>
+        <v>43.60652012927778</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>18.21856885640081</v>
+        <v>6.211748943367443</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>38.6187918277184</v>
+        <v>59.70990025002182</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>44.00660818313055</v>
+        <v>71.88370914833716</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>40.80069273021171</v>
+        <v>72.89837636433309</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>48.87325460636025</v>
+        <v>78.36141183933967</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>53.69304000762433</v>
+        <v>88.65541179426209</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>18.79194271038234</v>
+        <v>13.07945375700142</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>43.08759594855186</v>
+        <v>69.74246299841094</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>49.69325379509583</v>
+        <v>78.33866499845561</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.45725194788691</v>
+        <v>53.29978700931026</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.68527477175721</v>
+        <v>30.89667920019339</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.67021637336555</v>
+        <v>40.82043859993829</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.96107900647041</v>
+        <v>49.66961239652815</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>9.208651735728345</v>
+        <v>4.263714874705659</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.97291308730043</v>
+        <v>45.35050467970996</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.25617611058797</v>
+        <v>54.19130291548936</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>10.95378353360117</v>
+        <v>9.060564488996722</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.9458584744326</v>
+        <v>32.66366591683951</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>32.58627327613469</v>
+        <v>44.82041475822027</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>6.733773122605696</v>
+        <v>0.8091225671717801</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.26361657027759</v>
+        <v>31.27248522257281</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>30.8305036909381</v>
+        <v>43.36199784843211</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>17.17648515566641</v>
+        <v>0.9940698614036805</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.54911616449554</v>
+        <v>50.92078199783589</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.95281784333154</v>
+        <v>68.70796477296564</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>39.79347520706651</v>
+        <v>57.39018565985393</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>47.8675214557285</v>
+        <v>67.93531380421015</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>52.69615579757335</v>
+        <v>82.49317566233809</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>17.83802711187996</v>
+        <v>6.650138626416183</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>42.0867315615763</v>
+        <v>58.6934956432856</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>48.71937498739999</v>
+        <v>74.59217095456712</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.21000300972</v>
+        <v>14.65838476396919</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.35913907285963</v>
+        <v>17.9697700031968</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.13936710943051</v>
+        <v>25.5613931564395</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.95409640277508</v>
+        <v>4.720594853186803</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.07133724776314</v>
+        <v>20.83872030827921</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.88122804368126</v>
+        <v>21.86959877402466</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>23.71361760682527</v>
+        <v>8.370514342190457</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.98551850015222</v>
+        <v>32.96487311712534</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>45.34169702296496</v>
+        <v>35.38181362508124</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.7496555328971</v>
+        <v>22.18419135204541</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>47.38868425001026</v>
+        <v>28.66013013496716</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>51.26299041872472</v>
+        <v>30.18297182704787</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.59940552602777</v>
+        <v>16.54594246203416</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.92507377987297</v>
+        <v>18.75790153489431</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>47.90204928394002</v>
+        <v>29.31217583903257</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.1113461349447</v>
+        <v>13.44261172450256</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.40588388315388</v>
+        <v>22.11297779749155</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.42261873580458</v>
+        <v>27.57065093952918</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.36290934243552</v>
+        <v>4.055406336285674</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>32.39602557249892</v>
+        <v>12.6307819797936</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.57491652989402</v>
+        <v>16.00654352770206</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.31872603830551</v>
+        <v>0.2292391862006689</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>42.67219441759828</v>
+        <v>20.54773956367058</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>19.65424195936457</v>
+        <v>17.54299129521026</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.88496379392644</v>
+        <v>27.9461385483012</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.65890786932267</v>
+        <v>31.37976866582551</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>16.49650263368479</v>
+        <v>7.209174675050001</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.71699936221337</v>
+        <v>35.26179409987124</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.51779808703357</v>
+        <v>35.24328274960284</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.38123321966149</v>
+        <v>10.99414395966037</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.74559274704988</v>
+        <v>47.57677358463503</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>47.09633089364305</v>
+        <v>47.96787285549472</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>42.40942037187808</v>
+        <v>47.6389851071649</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>49.06792419537513</v>
+        <v>53.77570552208577</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>52.94509317146212</v>
+        <v>54.17040204448327</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>24.12320146246105</v>
+        <v>25.78565615519517</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.5808098370215</v>
+        <v>43.67618223294686</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>49.54225518494975</v>
+        <v>49.31462513819469</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>21.55728708167404</v>
+        <v>17.07296266244136</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.93278365472126</v>
+        <v>33.79286082340319</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>39.94529493070202</v>
+        <v>37.27422867146724</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>17.90463394191915</v>
+        <v>8.632037240701248</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.04013943859079</v>
+        <v>31.4324777668525</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>38.21214863100544</v>
+        <v>36.61845960581285</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>26.98724693823715</v>
+        <v>7.616841496886675</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.43230390595037</v>
+        <v>44.58168175276374</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>19.83894691996646</v>
+        <v>11.73926228535639</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.0772118328374</v>
+        <v>23.22188719140736</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.85291690691913</v>
+        <v>28.82041829791056</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>16.7159079057375</v>
+        <v>6.018402400102509</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.94563410120309</v>
+        <v>32.98772645873935</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>36.74925808652973</v>
+        <v>35.59544467358559</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.61175875301189</v>
+        <v>10.17994733983463</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.98322830558544</v>
+        <v>46.85341652370772</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>47.33576526896751</v>
+        <v>50.62169119238057</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.63407233782673</v>
+        <v>48.38959182070244</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>49.29050621817751</v>
+        <v>53.35922854214991</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>53.17180735850564</v>
+        <v>56.70793327953199</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.32701046223845</v>
+        <v>18.58507181841996</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>43.803618742799</v>
+        <v>38.95925474361298</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>49.76537489980323</v>
+        <v>46.68993870825496</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>21.7415747486165</v>
+        <v>11.11724880967491</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.12429633341463</v>
+        <v>28.37251290921458</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>40.13896825732039</v>
+        <v>34.73900972620412</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>18.12217127481192</v>
+        <v>6.031830360063111</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.26667233236689</v>
+        <v>27.09304823351023</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>38.44186240770818</v>
+        <v>36.27453913143543</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.21616772293566</v>
+        <v>5.261042137553336</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>44.66798490794748</v>
+        <v>41.83291906335633</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>19.03399955989267</v>
+        <v>8.105230430045392</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>33.24804562062038</v>
+        <v>17.56333659327164</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>37.03674730738933</v>
+        <v>27.05953810356576</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>15.85417494909741</v>
+        <v>5.374654928466885</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.05012263028983</v>
+        <v>30.18892491973373</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.86966682946196</v>
+        <v>36.45791470336712</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.68679411483506</v>
+        <v>7.279505275562567</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.03251598400881</v>
+        <v>41.98252613780903</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>46.39860919726556</v>
+        <v>48.69494079596629</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.73696562004318</v>
+        <v>39.0579997087971</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>48.39214457436307</v>
+        <v>43.18617457354691</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>52.28019420277941</v>
+        <v>49.23361614255616</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>23.48134995364507</v>
+        <v>14.41444913457549</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>42.91280718378813</v>
+        <v>31.63237495297915</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.89921998227236</v>
+        <v>44.9347191635367</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>20.93462962883739</v>
+        <v>8.079088579631748</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>35.29376203914208</v>
+        <v>23.87369923897374</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>39.32046973857965</v>
+        <v>33.05543125348795</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>17.25854008729051</v>
+        <v>5.909291308317624</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>33.36967204382247</v>
+        <v>24.18108091145793</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.55987431450005</v>
+        <v>35.59571443911067</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.28846023044771</v>
+        <v>2.233957114744026</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>43.71520618078669</v>
+        <v>34.82932101957925</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>47.32628523052665</v>
+        <v>29.14222883545041</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>42.02157973570205</v>
+        <v>18.62238835319813</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>49.21670529022474</v>
+        <v>31.58625131755741</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>53.24523935967802</v>
+        <v>34.55785269190307</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.39389637619329</v>
+        <v>6.411962918322178</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>44.58883261319583</v>
+        <v>19.2129378861522</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>50.52447334592717</v>
+        <v>25.45886430626402</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.45284593733568</v>
+        <v>15.59872145589579</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.7025270273762</v>
+        <v>23.15359337517695</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>46.01886746030191</v>
+        <v>32.2432779251167</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.63149227397308</v>
+        <v>1.748153045075092</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>40.17865260478485</v>
+        <v>13.21304244817875</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>44.48843172953053</v>
+        <v>17.87439212348207</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.28373029140258</v>
+        <v>0.09882059131328091</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>51.60268520387007</v>
+        <v>25.45370686612338</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>56.61070951826405</v>
+        <v>39.26814373584653</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>51.92939250030184</v>
+        <v>27.40284313795889</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>59.1753475199822</v>
+        <v>40.0443361858029</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>63.69885233581547</v>
+        <v>46.68974456107969</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.06403839229425</v>
+        <v>6.059338336753353</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>53.55597499850711</v>
+        <v>22.84825839644641</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>59.82928796792528</v>
+        <v>34.70507108735928</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>49.08341523995574</v>
+        <v>54.11700202841993</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.67846705477517</v>
+        <v>47.86408906687183</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>50.89212903244007</v>
+        <v>57.37936077447257</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>54.92408051626795</v>
+        <v>59.97907114392054</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.91915612668991</v>
+        <v>20.91138483816798</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>46.24668773651805</v>
+        <v>53.05413831500806</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>52.16874924237398</v>
+        <v>57.12098691961639</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.96921908386712</v>
+        <v>23.2420352420196</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.30255017293623</v>
+        <v>40.18091856708726</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>47.61351272040076</v>
+        <v>44.97559835670377</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>24.24727250664665</v>
+        <v>11.54534257971308</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>41.90034275302223</v>
+        <v>41.53497728496225</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.20173356655656</v>
+        <v>44.67223231198213</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.03307260134531</v>
+        <v>13.1634011870595</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>53.44686803734686</v>
+        <v>58.08358718364405</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>58.45027152636848</v>
+        <v>67.23652504525778</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>53.66919024342913</v>
+        <v>70.89300941728825</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>60.93285767710096</v>
+        <v>76.45933130689831</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>65.45944593241516</v>
+        <v>81.84607478662276</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>33.66703524620399</v>
+        <v>29.84642968103607</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>55.29434729230253</v>
+        <v>69.54571455552303</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>61.55234986902009</v>
+        <v>75.62485456956523</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>49.32136868726329</v>
+        <v>55.96124144049357</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>43.89990672745561</v>
+        <v>42.10449687692343</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>51.1111069832502</v>
+        <v>50.20490127897408</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>55.14707817656302</v>
+        <v>58.03558800212653</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.12159160000685</v>
+        <v>13.24378393196739</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.46758391991437</v>
+        <v>48.66703976780511</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>52.39049801938711</v>
+        <v>55.38719332133761</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.17362923011937</v>
+        <v>17.65492625766263</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>43.51422398473863</v>
+        <v>36.33157564756814</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>47.82671475554098</v>
+        <v>43.34725002887734</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>24.48650267812882</v>
+        <v>9.187970323439064</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.14837706533798</v>
+        <v>39.22396411872479</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>46.45239099507467</v>
+        <v>45.3988386784719</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.28457117119763</v>
+        <v>11.61913608213598</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>53.70530630071046</v>
+        <v>57.81184725942533</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>58.71012927825892</v>
+        <v>70.219414501222</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>53.91207213498185</v>
+        <v>70.04473227655384</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>61.17306960291145</v>
+        <v>74.52930884360869</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>65.70310590556298</v>
+        <v>83.91432929689516</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>33.89011792449136</v>
+        <v>22.22535098366574</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>55.53560821098606</v>
+        <v>67.43976412150887</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>61.79372680022558</v>
+        <v>76.6457505796219</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>48.38102948871484</v>
+        <v>51.31578589975115</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>43.00121983517727</v>
+        <v>27.57017507342173</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>50.21272536241736</v>
+        <v>36.41059378988405</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>54.25536470688926</v>
+        <v>46.78210671991829</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.27354465263456</v>
+        <v>8.576837087583272</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.57567317865011</v>
+        <v>41.60788993920186</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>51.52171777527855</v>
+        <v>51.76948056035958</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.34555903088643</v>
+        <v>14.42350835987986</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>42.66260275022407</v>
+        <v>33.37187223994627</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.98854313378052</v>
+        <v>44.32599621787703</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.5999101396616</v>
+        <v>8.982106909798642</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>41.22886143600529</v>
+        <v>35.75684001364822</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.54938678364879</v>
+        <v>46.23074556866656</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>34.33332795496924</v>
+        <v>7.505311909288938</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>52.7287275931722</v>
+        <v>51.31733789079499</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.74774663366537</v>
+        <v>68.25087987382315</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>52.99152526704525</v>
+        <v>56.74428216180587</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>60.25336079051162</v>
+        <v>65.26130323647857</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>64.79147442829561</v>
+        <v>78.26607031220163</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>33.01802826009898</v>
+        <v>15.28976215795559</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>54.62007339131161</v>
+        <v>57.48150040353649</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>60.9032495834193</v>
+        <v>72.9743094790371</v>
       </c>
     </row>
   </sheetData>
